--- a/graficos.xlsx
+++ b/graficos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engpe\OneDrive\Área de Trabalho\ProjetoSistemasDistribuidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D27247-97BA-4667-A2BC-82D265C4DEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BC2452-0935-4B0D-A8B1-726117939F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{77503643-9DA6-4F48-8C16-42B83B49B887}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{77503643-9DA6-4F48-8C16-42B83B49B887}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráficos" sheetId="1" r:id="rId1"/>
@@ -161,12 +161,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -196,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -226,6 +232,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,7 +1141,7 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1246</c:v>
+                  <c:v>4654</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1515</c:v>
@@ -3466,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0602082B-EE9F-439A-ADA3-83930428EDF7}">
   <dimension ref="D5:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3557,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="8">
-        <v>1246</v>
+        <v>4654</v>
       </c>
       <c r="T6" s="7">
         <v>3300</v>
@@ -3653,8 +3662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442F6F36-45DF-4E32-89EE-AE303610F5F7}">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3675,10 +3684,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3767,7 +3776,7 @@
         <v>86</v>
       </c>
       <c r="F3" s="4">
-        <v>1006410019131400</v>
+        <v>101</v>
       </c>
       <c r="G3" s="4">
         <v>5.45861000427976E+16</v>
@@ -3832,7 +3841,7 @@
         <v>86</v>
       </c>
       <c r="F4" s="4">
-        <v>1006410019131400</v>
+        <v>101</v>
       </c>
       <c r="G4" s="4">
         <v>5.45861000427976E+16</v>
@@ -3884,10 +3893,10 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3976,7 +3985,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="4">
-        <v>5654845607366460</v>
+        <v>565</v>
       </c>
       <c r="G8" s="4">
         <v>4339499998604870</v>
@@ -4041,7 +4050,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="4">
-        <v>5654845607366460</v>
+        <v>565</v>
       </c>
       <c r="G9" s="4">
         <v>4339499998604870</v>
@@ -4093,10 +4102,10 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4185,7 +4194,7 @@
         <v>69</v>
       </c>
       <c r="F13" s="4">
-        <v>782924251445102</v>
+        <v>78</v>
       </c>
       <c r="G13" s="4">
         <v>5.74078000001918E+16</v>
@@ -4250,7 +4259,7 @@
         <v>69</v>
       </c>
       <c r="F14" s="4">
-        <v>782924251445102</v>
+        <v>78</v>
       </c>
       <c r="G14" s="4">
         <v>5.74078000001918E+16</v>
@@ -4302,10 +4311,10 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4394,7 +4403,7 @@
         <v>27</v>
       </c>
       <c r="F18" s="4">
-        <v>1979241805086750</v>
+        <v>198</v>
       </c>
       <c r="G18" s="4">
         <v>296480004908517</v>
@@ -4459,7 +4468,7 @@
         <v>27</v>
       </c>
       <c r="F19" s="4">
-        <v>1979241805086750</v>
+        <v>198</v>
       </c>
       <c r="G19" s="4">
         <v>296480004908517</v>
@@ -4518,10 +4527,10 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4610,7 +4619,7 @@
         <v>30</v>
       </c>
       <c r="F23" s="4">
-        <v>4.4391502481617904E+16</v>
+        <v>444</v>
       </c>
       <c r="G23" s="4">
         <v>4233939998084670</v>
@@ -4675,7 +4684,7 @@
         <v>30</v>
       </c>
       <c r="F24" s="4">
-        <v>4.4391502481617904E+16</v>
+        <v>444</v>
       </c>
       <c r="G24" s="4">
         <v>4233939998084670</v>
@@ -4727,10 +4736,10 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4819,7 +4828,7 @@
         <v>31</v>
       </c>
       <c r="F28" s="4">
-        <v>2.07492802094839E+16</v>
+        <v>207</v>
       </c>
       <c r="G28" s="4">
         <v>2.01990000005025E+16</v>
@@ -4884,7 +4893,7 @@
         <v>31</v>
       </c>
       <c r="F29" s="4">
-        <v>2.07492802094839E+16</v>
+        <v>207</v>
       </c>
       <c r="G29" s="4">
         <v>2.01990000005025E+16</v>
@@ -4936,10 +4945,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5028,7 +5037,7 @@
         <v>35</v>
       </c>
       <c r="F33" s="4">
-        <v>4654801283569300</v>
+        <v>4654</v>
       </c>
       <c r="G33" s="4">
         <v>3328119998332110</v>
@@ -5093,7 +5102,7 @@
         <v>35</v>
       </c>
       <c r="F34" s="4">
-        <v>4654801283569300</v>
+        <v>4654</v>
       </c>
       <c r="G34" s="4">
         <v>3328119998332110</v>
@@ -5145,10 +5154,10 @@
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5237,7 +5246,7 @@
         <v>33</v>
       </c>
       <c r="F38" s="4">
-        <v>1.51544981456743E+16</v>
+        <v>1515</v>
       </c>
       <c r="G38" s="4">
         <v>4037999955471600</v>
@@ -5302,7 +5311,7 @@
         <v>33</v>
       </c>
       <c r="F39" s="4">
-        <v>1.51544981456743E+16</v>
+        <v>1515</v>
       </c>
       <c r="G39" s="4">
         <v>4037999955471600</v>
@@ -5354,10 +5363,10 @@
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5446,7 +5455,7 @@
         <v>23</v>
       </c>
       <c r="F43" s="4">
-        <v>1.24606709496137E+16</v>
+        <v>1246</v>
       </c>
       <c r="G43" s="4">
         <v>39705999661237</v>
@@ -5511,7 +5520,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="4">
-        <v>1.24606709496137E+16</v>
+        <v>1246</v>
       </c>
       <c r="G44" s="4">
         <v>39705999661237</v>
